--- a/y5 PRO/INF/ulohy_y5inf_2023.xlsx
+++ b/y5 PRO/INF/ulohy_y5inf_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\y5 PRO\INF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\pro y5\y5 PRO\INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2EE854-0879-4D85-B4A8-5B57781B2A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E8AAA-7EDA-4CFB-8809-09A1DF3ADC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{023D97C7-5C40-4D3D-824E-12B18D3A2E9A}"/>
   </bookViews>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,13 +167,74 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -201,6 +262,16 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -517,12 +588,13 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="10" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="10" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -615,32 +687,32 @@
       <c r="A5">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="8" t="str">
         <f>DEC2BIN(A5,8)</f>
         <v>00011000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -648,32 +720,32 @@
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="str">
-        <f t="shared" ref="B6:B12" si="1">DEC2BIN(A6,8)</f>
+      <c r="B6" s="8" t="str">
+        <f t="shared" ref="B6:C12" si="1">DEC2BIN(A6,8)</f>
         <v>00001100</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -681,32 +753,32 @@
       <c r="A7">
         <v>66</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01000010</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -714,32 +786,32 @@
       <c r="A8">
         <v>63</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="8" t="str">
         <f>DEC2BIN(A8,8)</f>
         <v>00111111</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="9">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -747,32 +819,32 @@
       <c r="A9">
         <v>66</v>
       </c>
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01000010</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -780,32 +852,32 @@
       <c r="A10">
         <v>90</v>
       </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01011010</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -813,32 +885,32 @@
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01011010</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="9">
         <v>0</v>
       </c>
     </row>
@@ -846,42 +918,42 @@
       <c r="A12">
         <v>90</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>01011010</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:J12">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>0</formula>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44770,21 +44842,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010033152C77CC42FA448FE5F7CD89A8397B" ma:contentTypeVersion="3" ma:contentTypeDescription="Umožňuje vytvoriť nový dokument." ma:contentTypeScope="" ma:versionID="6399ebbe1eef111da8d1fc8b755ec5f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29972da4-42bb-4f1e-9d71-ccc8f3a8fb2c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="007618191c5d9df832906e6a05447ae5" ns2:_="">
     <xsd:import namespace="29972da4-42bb-4f1e-9d71-ccc8f3a8fb2c"/>
@@ -44922,24 +44979,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B85908-6DE5-4C61-872F-2222D17DDBDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAC851E1-13E2-4480-851B-2D60FDA60612}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B9147E-444B-4E45-A836-AE89DABFD56E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44955,4 +45010,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAC851E1-13E2-4480-851B-2D60FDA60612}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B85908-6DE5-4C61-872F-2222D17DDBDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>